--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H2">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>1.05948698358</v>
+        <v>0.5322770909985557</v>
       </c>
       <c r="R2">
-        <v>9.53538285222</v>
+        <v>4.790493818987001</v>
       </c>
       <c r="S2">
-        <v>0.009169481544163185</v>
+        <v>0.004561716129816883</v>
       </c>
       <c r="T2">
-        <v>0.009169481544163185</v>
+        <v>0.004561716129816884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H3">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.1128294937055556</v>
+        <v>0.06008936298111112</v>
       </c>
       <c r="R3">
-        <v>1.01546544335</v>
+        <v>0.54080426683</v>
       </c>
       <c r="S3">
-        <v>0.0009764989813036698</v>
+        <v>0.0005149772946777075</v>
       </c>
       <c r="T3">
-        <v>0.0009764989813036698</v>
+        <v>0.0005149772946777075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H4">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.06202208054888889</v>
+        <v>0.05986674238833333</v>
       </c>
       <c r="R4">
-        <v>0.55819872494</v>
+        <v>0.538800681495</v>
       </c>
       <c r="S4">
-        <v>0.0005367789616461077</v>
+        <v>0.0005130693937627935</v>
       </c>
       <c r="T4">
-        <v>0.0005367789616461077</v>
+        <v>0.0005130693937627938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.754054</v>
       </c>
       <c r="I5">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J5">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>95.59841868453599</v>
+        <v>90.18159186795536</v>
       </c>
       <c r="R5">
-        <v>860.3857681608239</v>
+        <v>811.6343268115982</v>
       </c>
       <c r="S5">
-        <v>0.827370179496734</v>
+        <v>0.7728734322659986</v>
       </c>
       <c r="T5">
-        <v>0.827370179496734</v>
+        <v>0.7728734322659988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.754054</v>
       </c>
       <c r="I6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
         <v>10.18070193064667</v>
       </c>
       <c r="R6">
-        <v>91.62631737581999</v>
+        <v>91.62631737582001</v>
       </c>
       <c r="S6">
-        <v>0.08811034010465715</v>
+        <v>0.08725055613940523</v>
       </c>
       <c r="T6">
-        <v>0.08811034010465715</v>
+        <v>0.08725055613940524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.754054</v>
       </c>
       <c r="I7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>5.596305491138667</v>
+        <v>10.14298420847</v>
       </c>
       <c r="R7">
-        <v>50.366749420248</v>
+        <v>91.28685787623</v>
       </c>
       <c r="S7">
-        <v>0.04843402581794944</v>
+        <v>0.0869273080707903</v>
       </c>
       <c r="T7">
-        <v>0.04843402581794944</v>
+        <v>0.08692730807079033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H8">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I8">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J8">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N8">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q8">
-        <v>2.519370096456</v>
+        <v>4.509686727527557</v>
       </c>
       <c r="R8">
-        <v>22.674330868104</v>
+        <v>40.58718054774801</v>
       </c>
       <c r="S8">
-        <v>0.02180424862258403</v>
+        <v>0.03864887486852105</v>
       </c>
       <c r="T8">
-        <v>0.02180424862258402</v>
+        <v>0.03864887486852106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H9">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I9">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J9">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q9">
-        <v>0.2682989568022223</v>
+        <v>0.5091036365911112</v>
       </c>
       <c r="R9">
-        <v>2.41469061122</v>
+        <v>4.58193272932</v>
       </c>
       <c r="S9">
-        <v>0.00232203167272838</v>
+        <v>0.004363115208338746</v>
       </c>
       <c r="T9">
-        <v>0.00232203167272838</v>
+        <v>0.004363115208338746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H10">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I10">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J10">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N10">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q10">
-        <v>0.1474832418675556</v>
+        <v>0.5072174965533334</v>
       </c>
       <c r="R10">
-        <v>1.327349176808</v>
+        <v>4.56495746898</v>
       </c>
       <c r="S10">
-        <v>0.001276414798234086</v>
+        <v>0.004346950628688543</v>
       </c>
       <c r="T10">
-        <v>0.001276414798234086</v>
+        <v>0.004346950628688544</v>
       </c>
     </row>
   </sheetData>
